--- a/ch_stop_words.xlsx
+++ b/ch_stop_words.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mao-Chang\Desktop\love_song\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mao-Chang\Desktop\songs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2646F468-6225-42A3-AEBB-4030CAA45A16}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA2D7A9-8101-44D9-805F-09FFB0930909}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11910" xr2:uid="{81B05ED8-949F-4F00-907E-162650EEDCA0}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1909" uniqueCount="1896">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1911" uniqueCount="1898">
   <si>
     <t>!</t>
   </si>
@@ -5755,6 +5755,14 @@
   </si>
   <si>
     <t>妳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hittin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hardi</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6158,10 +6166,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9516C818-D1C5-42F9-94CF-61FD63E55DAC}">
-  <dimension ref="A1:A1935"/>
+  <dimension ref="A1:A1937"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1914" workbookViewId="0">
-      <selection activeCell="A1935" sqref="A1935"/>
+    <sheetView tabSelected="1" topLeftCell="A1893" workbookViewId="0">
+      <selection activeCell="A1920" sqref="A1920"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
@@ -15764,81 +15772,91 @@
     </row>
     <row r="1920" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1920" s="2" t="s">
-        <v>1879</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="1921" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1921" s="2" t="s">
-        <v>1880</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="1922" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1922" s="2" t="s">
-        <v>1881</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="1923" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1923" s="2" t="s">
-        <v>1882</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="1924" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1924" s="2" t="s">
-        <v>1883</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="1925" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1925" s="2" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="1926" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1926" s="2" t="s">
-        <v>1885</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="1927" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1927" s="2" t="s">
-        <v>1886</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="1928" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1928" s="2" t="s">
-        <v>1887</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="1929" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1929" s="2" t="s">
-        <v>1888</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="1930" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1930" s="2" t="s">
-        <v>1889</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1931" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1931" s="2" t="s">
-        <v>1890</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="1932" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1932" s="2" t="s">
-        <v>1891</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="1933" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1933" s="2" t="s">
-        <v>1892</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="1934" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1934" s="2" t="s">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="1935" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1935" s="2" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="1936" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1936" s="2" t="s">
         <v>1894</v>
       </c>
     </row>
-    <row r="1935" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1935" s="6" t="s">
+    <row r="1937" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1937" s="6" t="s">
         <v>1895</v>
       </c>
     </row>

--- a/ch_stop_words.xlsx
+++ b/ch_stop_words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mao-Chang\Desktop\songs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA2D7A9-8101-44D9-805F-09FFB0930909}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46EC05A6-664F-41BD-A589-9B8F2B12BF66}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11910" xr2:uid="{81B05ED8-949F-4F00-907E-162650EEDCA0}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1911" uniqueCount="1898">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1849" uniqueCount="1836">
   <si>
     <t>!</t>
   </si>
@@ -84,18 +84,6 @@
     <t>...................</t>
   </si>
   <si>
-    <t>./</t>
-  </si>
-  <si>
-    <t>.一</t>
-  </si>
-  <si>
-    <t>.數</t>
-  </si>
-  <si>
-    <t>.日</t>
-  </si>
-  <si>
     <t>/</t>
   </si>
   <si>
@@ -198,9 +186,6 @@
     <t>φ</t>
   </si>
   <si>
-    <t>φ．</t>
-  </si>
-  <si>
     <t>В</t>
   </si>
   <si>
@@ -237,15 +222,6 @@
     <t>……</t>
   </si>
   <si>
-    <t>…………………………………………………③</t>
-  </si>
-  <si>
-    <t>′∈</t>
-  </si>
-  <si>
-    <t>′｜</t>
-  </si>
-  <si>
     <t>℃</t>
   </si>
   <si>
@@ -261,9 +237,6 @@
     <t>∈［</t>
   </si>
   <si>
-    <t>∪φ∈</t>
-  </si>
-  <si>
     <t>≈</t>
   </si>
   <si>
@@ -273,15 +246,9 @@
     <t>②</t>
   </si>
   <si>
-    <t>②ｃ</t>
-  </si>
-  <si>
     <t>③</t>
   </si>
   <si>
-    <t>③］</t>
-  </si>
-  <si>
     <t>④</t>
   </si>
   <si>
@@ -330,9 +297,6 @@
     <t>》</t>
   </si>
   <si>
-    <t>》）。</t>
-  </si>
-  <si>
     <t>」</t>
   </si>
   <si>
@@ -5184,9 +5148,6 @@
     <t>）</t>
   </si>
   <si>
-    <t>）÷（１－</t>
-  </si>
-  <si>
     <t>）、</t>
   </si>
   <si>
@@ -5196,27 +5157,15 @@
     <t>＋</t>
   </si>
   <si>
-    <t>＋ξ</t>
-  </si>
-  <si>
     <t>＋＋</t>
   </si>
   <si>
-    <t>。也</t>
-  </si>
-  <si>
     <t>－</t>
   </si>
   <si>
-    <t>－β</t>
-  </si>
-  <si>
     <t>－－</t>
   </si>
   <si>
-    <t>－［＊］－</t>
-  </si>
-  <si>
     <t>．</t>
   </si>
   <si>
@@ -5229,48 +5178,6 @@
     <t>＜</t>
   </si>
   <si>
-    <t>＜±</t>
-  </si>
-  <si>
-    <t>＜Δ</t>
-  </si>
-  <si>
-    <t>＜λ</t>
-  </si>
-  <si>
-    <t>＜φ</t>
-  </si>
-  <si>
-    <t>＜＜</t>
-  </si>
-  <si>
-    <t>＝</t>
-  </si>
-  <si>
-    <t>＝″</t>
-  </si>
-  <si>
-    <t>＝☆</t>
-  </si>
-  <si>
-    <t>＝（</t>
-  </si>
-  <si>
-    <t>＝－</t>
-  </si>
-  <si>
-    <t>＝［</t>
-  </si>
-  <si>
-    <t>＝｛</t>
-  </si>
-  <si>
-    <t>＞</t>
-  </si>
-  <si>
-    <t>＞λ</t>
-  </si>
-  <si>
     <t>？</t>
   </si>
   <si>
@@ -5280,307 +5187,25 @@
     <t>Ａ</t>
   </si>
   <si>
-    <t>ＬＩ</t>
-  </si>
-  <si>
-    <t>Ｒ．Ｌ．</t>
-  </si>
-  <si>
-    <t>ＺＸＦＩＴＬ</t>
-  </si>
-  <si>
     <t>［</t>
   </si>
   <si>
-    <t>［①①］</t>
-  </si>
-  <si>
-    <t>［①②］</t>
-  </si>
-  <si>
-    <t>［①③］</t>
-  </si>
-  <si>
-    <t>［①④］</t>
-  </si>
-  <si>
-    <t>［①⑤］</t>
-  </si>
-  <si>
-    <t>［①⑥］</t>
-  </si>
-  <si>
-    <t>［①⑦］</t>
-  </si>
-  <si>
-    <t>［①⑧］</t>
-  </si>
-  <si>
-    <t>［①⑨］</t>
-  </si>
-  <si>
-    <t>［①Ａ］</t>
-  </si>
-  <si>
-    <t>［①Ｂ］</t>
-  </si>
-  <si>
-    <t>［①Ｃ］</t>
-  </si>
-  <si>
-    <t>［①Ｄ］</t>
-  </si>
-  <si>
-    <t>［①Ｅ］</t>
-  </si>
-  <si>
-    <t>［①］</t>
-  </si>
-  <si>
-    <t>［①ａ］</t>
-  </si>
-  <si>
-    <t>［①ｃ］</t>
-  </si>
-  <si>
-    <t>［①ｄ］</t>
-  </si>
-  <si>
-    <t>［①ｅ］</t>
-  </si>
-  <si>
-    <t>［①ｆ］</t>
-  </si>
-  <si>
-    <t>［①ｇ］</t>
-  </si>
-  <si>
-    <t>［①ｈ］</t>
-  </si>
-  <si>
-    <t>［①ｉ］</t>
-  </si>
-  <si>
-    <t>［①ｏ］</t>
-  </si>
-  <si>
-    <t>［②</t>
-  </si>
-  <si>
-    <t>［②①］</t>
-  </si>
-  <si>
-    <t>［②②］</t>
-  </si>
-  <si>
-    <t>［②③］</t>
-  </si>
-  <si>
-    <t>［②④</t>
-  </si>
-  <si>
-    <t>［②⑤］</t>
-  </si>
-  <si>
-    <t>［②⑥］</t>
-  </si>
-  <si>
-    <t>［②⑦］</t>
-  </si>
-  <si>
-    <t>［②⑧］</t>
-  </si>
-  <si>
-    <t>［②⑩］</t>
-  </si>
-  <si>
-    <t>［②Ｂ］</t>
-  </si>
-  <si>
-    <t>［②Ｇ］</t>
-  </si>
-  <si>
-    <t>［②］</t>
-  </si>
-  <si>
-    <t>［②ａ］</t>
-  </si>
-  <si>
-    <t>［②ｂ］</t>
-  </si>
-  <si>
-    <t>［②ｃ］</t>
-  </si>
-  <si>
-    <t>［②ｄ］</t>
-  </si>
-  <si>
-    <t>［②ｅ］</t>
-  </si>
-  <si>
-    <t>［②ｆ］</t>
-  </si>
-  <si>
-    <t>［②ｇ］</t>
-  </si>
-  <si>
-    <t>［②ｈ］</t>
-  </si>
-  <si>
-    <t>［②ｉ］</t>
-  </si>
-  <si>
-    <t>［②ｊ］</t>
-  </si>
-  <si>
-    <t>［③①］</t>
-  </si>
-  <si>
-    <t>［③⑩］</t>
-  </si>
-  <si>
-    <t>［③Ｆ］</t>
-  </si>
-  <si>
-    <t>［③］</t>
-  </si>
-  <si>
-    <t>［③ａ］</t>
-  </si>
-  <si>
-    <t>［③ｂ］</t>
-  </si>
-  <si>
-    <t>［③ｃ］</t>
-  </si>
-  <si>
-    <t>［③ｄ］</t>
-  </si>
-  <si>
-    <t>［③ｅ］</t>
-  </si>
-  <si>
-    <t>［③ｇ］</t>
-  </si>
-  <si>
-    <t>［③ｈ］</t>
-  </si>
-  <si>
-    <t>［④］</t>
-  </si>
-  <si>
-    <t>［④ａ］</t>
-  </si>
-  <si>
-    <t>［④ｂ］</t>
-  </si>
-  <si>
-    <t>［④ｃ］</t>
-  </si>
-  <si>
-    <t>［④ｄ］</t>
-  </si>
-  <si>
-    <t>［④ｅ］</t>
-  </si>
-  <si>
-    <t>［⑤］</t>
-  </si>
-  <si>
-    <t>［⑤］］</t>
-  </si>
-  <si>
-    <t>［⑤ａ］</t>
-  </si>
-  <si>
-    <t>［⑤ｂ］</t>
-  </si>
-  <si>
-    <t>［⑤ｄ］</t>
-  </si>
-  <si>
-    <t>［⑤ｅ］</t>
-  </si>
-  <si>
-    <t>［⑤ｆ］</t>
-  </si>
-  <si>
-    <t>［⑥］</t>
-  </si>
-  <si>
-    <t>［⑦］</t>
-  </si>
-  <si>
-    <t>［⑧］</t>
-  </si>
-  <si>
-    <t>［⑨］</t>
-  </si>
-  <si>
-    <t>［⑩］</t>
-  </si>
-  <si>
-    <t>［＊］</t>
-  </si>
-  <si>
-    <t>［－</t>
-  </si>
-  <si>
-    <t>［］</t>
-  </si>
-  <si>
     <t>］</t>
   </si>
   <si>
-    <t>］∧′＝［</t>
-  </si>
-  <si>
-    <t>］［</t>
-  </si>
-  <si>
     <t>＿</t>
   </si>
   <si>
-    <t>ａ］</t>
-  </si>
-  <si>
-    <t>ｂ］</t>
-  </si>
-  <si>
-    <t>ｃ］</t>
-  </si>
-  <si>
-    <t>ｅ］</t>
-  </si>
-  <si>
-    <t>ｆ］</t>
-  </si>
-  <si>
-    <t>ｎｇ昉</t>
-  </si>
-  <si>
     <t>｛</t>
   </si>
   <si>
-    <t>｛－</t>
-  </si>
-  <si>
     <t>｜</t>
   </si>
   <si>
     <t>｝</t>
   </si>
   <si>
-    <t>｝＞</t>
-  </si>
-  <si>
     <t>～</t>
-  </si>
-  <si>
-    <t>～±</t>
-  </si>
-  <si>
-    <t>～＋</t>
   </si>
   <si>
     <t>￥</t>
@@ -5763,6 +5388,258 @@
   </si>
   <si>
     <t>hardi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>repeat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>la</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tsi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>い</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>う</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>え</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>お</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>か</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>き</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>く</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>け</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>し</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>す</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>せ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>た</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ち</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>つ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>て</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>と</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>な</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>に</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぬ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ね</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>の</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>は</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ひ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ふ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>へ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ほ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ま</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>み</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>む</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>め</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>も</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>や</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ゆ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>よ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ら</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>り</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>れ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ろ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>わ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>を</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>da</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>re</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ti</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xx9s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xx9a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>var</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5770,7 +5647,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5807,6 +5684,20 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF212529"/>
+      <name val="微軟正黑體"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF212529"/>
+      <name val="微軟正黑體"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -5830,7 +5721,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5840,16 +5731,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6166,10 +6054,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9516C818-D1C5-42F9-94CF-61FD63E55DAC}">
-  <dimension ref="A1:A1937"/>
+  <dimension ref="A1:A1870"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1893" workbookViewId="0">
-      <selection activeCell="A1920" sqref="A1920"/>
+    <sheetView tabSelected="1" topLeftCell="A1861" workbookViewId="0">
+      <selection activeCell="A103" sqref="A103:XFD103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
@@ -6179,7 +6067,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>1893</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
@@ -6288,73 +6176,73 @@
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A23" s="2" t="s">
-        <v>21</v>
+      <c r="A23" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A24" s="2" t="s">
-        <v>22</v>
+      <c r="A24" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A25" s="2" t="s">
-        <v>23</v>
+      <c r="A25" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A26" s="2" t="s">
-        <v>24</v>
+      <c r="A26" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A29" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A30" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A31" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A32" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A33" s="2">
-        <v>6</v>
+      <c r="A33" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A34" s="2">
-        <v>7</v>
+      <c r="A34" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A35" s="2">
-        <v>8</v>
+      <c r="A35" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A36" s="2">
-        <v>9</v>
+      <c r="A36" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.45">
@@ -6653,62 +6541,62 @@
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A96" s="2" t="s">
-        <v>84</v>
-      </c>
+      <c r="A96" s="2"/>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A97" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A98" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A99" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A100" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A101" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A102" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A103" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A104" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A105" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A106" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A107" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A107" s="2"/>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A108" s="2" t="s">
@@ -7582,62 +7470,62 @@
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A282" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A283" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A284" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A285" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A286" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A287" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A288" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A289" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A290" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A291" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A292" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A293" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.45">
@@ -7862,67 +7750,67 @@
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A338" s="2" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A339" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A340" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A341" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A342" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A343" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A344" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A345" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A346" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A347" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A348" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A349" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A350" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.45">
@@ -8082,67 +7970,67 @@
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A382" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A383" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A384" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A385" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A386" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A387" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A388" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A389" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A390" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A391" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A392" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A393" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A394" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.45">
@@ -8527,62 +8415,62 @@
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A471" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A472" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A473" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A474" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A475" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A476" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A477" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A478" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A479" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A480" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A481" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A482" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.45">
@@ -11157,72 +11045,72 @@
     </row>
     <row r="997" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A997" s="2" t="s">
-        <v>980</v>
+        <v>655</v>
       </c>
     </row>
     <row r="998" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A998" s="2" t="s">
-        <v>981</v>
+        <v>657</v>
       </c>
     </row>
     <row r="999" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A999" s="2" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
     </row>
     <row r="1000" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1000" s="2" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
     </row>
     <row r="1001" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1001" s="2" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
     </row>
     <row r="1002" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1002" s="2" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row r="1003" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1003" s="2" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
     </row>
     <row r="1004" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1004" s="2" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="1005" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1005" s="2" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
     </row>
     <row r="1006" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1006" s="2" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="1007" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1007" s="2" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
     </row>
     <row r="1008" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1008" s="2" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row r="1009" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1009" s="2" t="s">
-        <v>667</v>
+        <v>990</v>
       </c>
     </row>
     <row r="1010" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1010" s="2" t="s">
-        <v>669</v>
+        <v>991</v>
       </c>
     </row>
     <row r="1011" spans="1:1" x14ac:dyDescent="0.45">
@@ -11732,62 +11620,62 @@
     </row>
     <row r="1112" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1112" s="2" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="1113" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1113" s="2" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="1114" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1114" s="2" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="1115" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1115" s="2" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="1116" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1116" s="2" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="1117" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1117" s="2" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="1118" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1118" s="2" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="1119" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1119" s="2" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="1120" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1120" s="2" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="1121" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1121" s="2" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="1122" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1122" s="2" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="1123" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1123" s="2" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="1124" spans="1:1" x14ac:dyDescent="0.45">
@@ -12042,67 +11930,67 @@
     </row>
     <row r="1174" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1174" s="2" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="1175" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1175" s="2" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="1176" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1176" s="2" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="1177" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1177" s="2" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="1178" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1178" s="2" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="1179" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1179" s="2" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="1180" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1180" s="2" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="1181" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1181" s="2" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="1182" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1182" s="2" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="1183" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1183" s="2" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="1184" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1184" s="2" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="1185" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1185" s="2" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="1186" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1186" s="2" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="1187" spans="1:1" x14ac:dyDescent="0.45">
@@ -12122,62 +12010,62 @@
     </row>
     <row r="1190" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1190" s="2" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="1191" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1191" s="2" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="1192" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1192" s="2" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="1193" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1193" s="2" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="1194" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1194" s="2" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="1195" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1195" s="2" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="1196" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1196" s="2" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="1197" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1197" s="2" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="1198" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1198" s="2" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="1199" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1199" s="2" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="1200" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1200" s="2" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="1201" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1201" s="2" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="1202" spans="1:1" x14ac:dyDescent="0.45">
@@ -12612,62 +12500,62 @@
     </row>
     <row r="1288" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1288" s="2" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="1289" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1289" s="2" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="1290" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1290" s="2" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="1291" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1291" s="2" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="1292" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1292" s="2" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="1293" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1293" s="2" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="1294" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1294" s="2" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="1295" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1295" s="2" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="1296" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1296" s="2" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="1297" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1297" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="1298" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1298" s="2" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="1299" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1299" s="2" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="1300" spans="1:1" x14ac:dyDescent="0.45">
@@ -14602,62 +14490,62 @@
     </row>
     <row r="1686" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1686" s="2" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="1687" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1687" s="2" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="1688" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1688" s="2" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="1689" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1689" s="2" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="1690" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1690" s="2" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="1691" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1691" s="2" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="1692" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1692" s="2" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="1693" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1693" s="2" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="1694" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1694" s="2" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="1695" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1695" s="2" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="1696" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1696" s="2" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="1697" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1697" s="2" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="1698" spans="1:1" x14ac:dyDescent="0.45">
@@ -14847,1017 +14735,682 @@
     </row>
     <row r="1735" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1735" s="2" t="s">
-        <v>1711</v>
+        <v>85</v>
       </c>
     </row>
     <row r="1736" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1736" s="2" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="1737" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1737" s="2" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="1738" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1738" s="2" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="1739" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1739" s="2" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="1740" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1740" s="2" t="s">
-        <v>1716</v>
+      <c r="A1740" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="1741" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1741" s="2" t="s">
-        <v>1717</v>
+      <c r="A1741" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="1742" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1742" s="2" t="s">
-        <v>1718</v>
+      <c r="A1742" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="1743" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1743" s="2" t="s">
-        <v>1719</v>
+      <c r="A1743" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="1744" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1744" s="2" t="s">
-        <v>1720</v>
+      <c r="A1744" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="1745" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1745" s="2" t="s">
-        <v>1721</v>
+      <c r="A1745" s="2">
+        <v>5</v>
       </c>
     </row>
     <row r="1746" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1746" s="2" t="s">
-        <v>1722</v>
+      <c r="A1746" s="2">
+        <v>6</v>
       </c>
     </row>
     <row r="1747" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1747" s="2" t="s">
-        <v>1723</v>
+      <c r="A1747" s="2">
+        <v>7</v>
       </c>
     </row>
     <row r="1748" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1748" s="2" t="s">
-        <v>1724</v>
+      <c r="A1748" s="2">
+        <v>8</v>
       </c>
     </row>
     <row r="1749" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1749" s="2" t="s">
-        <v>96</v>
+      <c r="A1749" s="2">
+        <v>9</v>
       </c>
     </row>
     <row r="1750" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1750" s="2" t="s">
-        <v>1725</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="1751" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1751" s="2" t="s">
-        <v>1726</v>
+        <v>85</v>
       </c>
     </row>
     <row r="1752" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1752" s="2" t="s">
-        <v>1727</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="1753" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1753" s="2" t="s">
-        <v>1728</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="1754" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1754" s="2" t="s">
-        <v>1729</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="1755" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1755" s="2" t="s">
-        <v>1730</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="1756" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1756" s="2" t="s">
-        <v>1731</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="1757" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1757" s="2">
-        <v>0</v>
+      <c r="A1757" s="2" t="s">
+        <v>1721</v>
       </c>
     </row>
     <row r="1758" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1758" s="3">
-        <v>1.3888888888888889E-3</v>
+      <c r="A1758" s="2" t="s">
+        <v>1722</v>
       </c>
     </row>
     <row r="1759" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1759" s="2">
-        <v>1</v>
+      <c r="A1759" s="2" t="s">
+        <v>1723</v>
       </c>
     </row>
     <row r="1760" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1760" s="2">
-        <v>1</v>
+      <c r="A1760" s="2" t="s">
+        <v>1724</v>
       </c>
     </row>
     <row r="1761" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1761" s="4">
-        <v>0.12</v>
+      <c r="A1761" s="2" t="s">
+        <v>1725</v>
       </c>
     </row>
     <row r="1762" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1762" s="2">
-        <v>2</v>
+      <c r="A1762" s="2" t="s">
+        <v>1726</v>
       </c>
     </row>
     <row r="1763" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1763" s="5">
-        <v>2.3E-2</v>
+      <c r="A1763" s="2" t="s">
+        <v>1727</v>
       </c>
     </row>
     <row r="1764" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1764" s="2">
-        <v>3</v>
+      <c r="A1764" s="4" t="s">
+        <v>1783</v>
       </c>
     </row>
     <row r="1765" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1765" s="2">
-        <v>4</v>
+      <c r="A1765" s="4" t="s">
+        <v>1784</v>
       </c>
     </row>
     <row r="1766" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1766" s="2">
-        <v>5</v>
+      <c r="A1766" s="4" t="s">
+        <v>1785</v>
       </c>
     </row>
     <row r="1767" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1767" s="3">
-        <v>0.20833333333333334</v>
+      <c r="A1767" s="4" t="s">
+        <v>1786</v>
       </c>
     </row>
     <row r="1768" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1768" s="2">
-        <v>6</v>
+      <c r="A1768" s="4" t="s">
+        <v>1787</v>
       </c>
     </row>
     <row r="1769" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1769" s="2">
-        <v>7</v>
+      <c r="A1769" s="4" t="s">
+        <v>1788</v>
       </c>
     </row>
     <row r="1770" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1770" s="2">
-        <v>8</v>
+      <c r="A1770" s="4" t="s">
+        <v>1789</v>
       </c>
     </row>
     <row r="1771" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1771" s="2">
-        <v>9</v>
+      <c r="A1771" s="4" t="s">
+        <v>1790</v>
       </c>
     </row>
     <row r="1772" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1772" s="2" t="s">
-        <v>1732</v>
+      <c r="A1772" s="4" t="s">
+        <v>1791</v>
       </c>
     </row>
     <row r="1773" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1773" s="2" t="s">
-        <v>96</v>
+      <c r="A1773" s="4" t="s">
+        <v>1792</v>
       </c>
     </row>
     <row r="1774" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1774" s="2" t="s">
-        <v>1733</v>
+      <c r="A1774" s="4" t="s">
+        <v>1793</v>
       </c>
     </row>
     <row r="1775" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1775" s="2" t="s">
-        <v>1734</v>
+      <c r="A1775" s="4" t="s">
+        <v>1794</v>
       </c>
     </row>
     <row r="1776" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1776" s="2" t="s">
-        <v>1735</v>
+      <c r="A1776" s="4" t="s">
+        <v>1795</v>
       </c>
     </row>
     <row r="1777" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1777" s="2" t="s">
-        <v>1736</v>
+      <c r="A1777" s="4" t="s">
+        <v>1796</v>
       </c>
     </row>
     <row r="1778" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1778" s="2" t="s">
-        <v>1737</v>
+      <c r="A1778" s="4" t="s">
+        <v>1797</v>
       </c>
     </row>
     <row r="1779" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1779" s="2" t="s">
-        <v>1738</v>
+      <c r="A1779" s="4" t="s">
+        <v>1798</v>
       </c>
     </row>
     <row r="1780" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1780" s="2" t="s">
-        <v>1739</v>
+      <c r="A1780" s="4" t="s">
+        <v>1799</v>
       </c>
     </row>
     <row r="1781" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1781" s="2" t="s">
-        <v>1740</v>
+      <c r="A1781" s="4" t="s">
+        <v>1800</v>
       </c>
     </row>
     <row r="1782" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1782" s="2" t="s">
-        <v>1741</v>
+      <c r="A1782" s="4" t="s">
+        <v>1801</v>
       </c>
     </row>
     <row r="1783" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1783" s="2" t="s">
-        <v>1742</v>
+      <c r="A1783" s="4" t="s">
+        <v>1802</v>
       </c>
     </row>
     <row r="1784" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1784" s="2" t="s">
-        <v>1743</v>
+      <c r="A1784" s="4" t="s">
+        <v>1803</v>
       </c>
     </row>
     <row r="1785" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1785" s="2" t="s">
-        <v>1744</v>
+      <c r="A1785" s="4" t="s">
+        <v>1804</v>
       </c>
     </row>
     <row r="1786" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1786" s="2" t="s">
-        <v>1745</v>
+      <c r="A1786" s="4" t="s">
+        <v>1805</v>
       </c>
     </row>
     <row r="1787" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1787" s="2" t="s">
-        <v>1746</v>
+      <c r="A1787" s="4" t="s">
+        <v>1806</v>
       </c>
     </row>
     <row r="1788" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1788" s="2" t="s">
-        <v>1747</v>
+      <c r="A1788" s="4" t="s">
+        <v>1807</v>
       </c>
     </row>
     <row r="1789" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1789" s="2" t="s">
-        <v>1748</v>
+      <c r="A1789" s="4" t="s">
+        <v>1808</v>
       </c>
     </row>
     <row r="1790" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1790" s="2" t="s">
-        <v>1749</v>
+      <c r="A1790" s="4" t="s">
+        <v>1809</v>
       </c>
     </row>
     <row r="1791" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1791" s="2" t="s">
-        <v>1750</v>
+      <c r="A1791" s="4" t="s">
+        <v>1810</v>
       </c>
     </row>
     <row r="1792" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1792" s="2" t="s">
-        <v>1751</v>
+      <c r="A1792" s="4" t="s">
+        <v>1811</v>
       </c>
     </row>
     <row r="1793" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1793" s="2" t="s">
-        <v>1752</v>
+      <c r="A1793" s="4" t="s">
+        <v>1812</v>
       </c>
     </row>
     <row r="1794" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1794" s="2" t="s">
-        <v>1753</v>
+      <c r="A1794" s="4" t="s">
+        <v>1813</v>
       </c>
     </row>
     <row r="1795" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1795" s="2" t="s">
-        <v>1754</v>
+      <c r="A1795" s="4" t="s">
+        <v>1814</v>
       </c>
     </row>
     <row r="1796" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1796" s="2" t="s">
-        <v>1755</v>
+      <c r="A1796" s="4" t="s">
+        <v>1815</v>
       </c>
     </row>
     <row r="1797" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1797" s="2" t="s">
-        <v>1756</v>
+      <c r="A1797" s="4" t="s">
+        <v>1816</v>
       </c>
     </row>
     <row r="1798" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1798" s="2" t="s">
-        <v>1757</v>
+      <c r="A1798" s="4" t="s">
+        <v>1817</v>
       </c>
     </row>
     <row r="1799" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1799" s="2" t="s">
-        <v>1758</v>
+      <c r="A1799" s="4" t="s">
+        <v>1818</v>
       </c>
     </row>
     <row r="1800" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1800" s="2" t="s">
-        <v>1759</v>
+      <c r="A1800" s="4" t="s">
+        <v>1819</v>
       </c>
     </row>
     <row r="1801" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1801" s="2" t="s">
-        <v>1760</v>
+      <c r="A1801" s="4" t="s">
+        <v>1820</v>
       </c>
     </row>
     <row r="1802" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1802" s="2" t="s">
-        <v>1761</v>
+      <c r="A1802" s="4" t="s">
+        <v>1821</v>
       </c>
     </row>
     <row r="1803" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1803" s="2" t="s">
-        <v>1762</v>
+      <c r="A1803" s="4" t="s">
+        <v>1822</v>
       </c>
     </row>
     <row r="1804" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1804" s="2" t="s">
-        <v>1763</v>
+      <c r="A1804" s="4" t="s">
+        <v>1823</v>
       </c>
     </row>
     <row r="1805" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1805" s="2" t="s">
-        <v>1764</v>
+      <c r="A1805" s="4" t="s">
+        <v>1824</v>
       </c>
     </row>
     <row r="1806" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1806" s="2" t="s">
-        <v>1765</v>
+      <c r="A1806" s="4" t="s">
+        <v>1825</v>
       </c>
     </row>
     <row r="1807" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1807" s="2" t="s">
-        <v>1766</v>
+      <c r="A1807" s="4" t="s">
+        <v>1826</v>
       </c>
     </row>
     <row r="1808" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1808" s="2" t="s">
-        <v>1767</v>
+      <c r="A1808" s="4" t="s">
+        <v>1827</v>
       </c>
     </row>
     <row r="1809" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1809" s="2" t="s">
-        <v>1768</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="1810" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1810" s="2" t="s">
-        <v>1769</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="1811" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1811" s="2" t="s">
-        <v>1770</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="1812" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1812" s="2" t="s">
-        <v>1771</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="1813" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1813" s="2" t="s">
-        <v>1772</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="1814" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1814" s="2" t="s">
-        <v>1773</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="1815" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1815" s="2" t="s">
-        <v>1774</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="1816" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1816" s="2" t="s">
-        <v>1775</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="1817" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1817" s="2" t="s">
-        <v>1776</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="1818" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1818" s="2" t="s">
-        <v>1777</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="1819" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1819" s="2" t="s">
-        <v>1778</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="1820" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1820" s="2" t="s">
-        <v>1779</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="1821" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1821" s="2" t="s">
-        <v>1780</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="1822" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1822" s="2" t="s">
-        <v>1781</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="1823" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1823" s="2" t="s">
-        <v>1782</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="1824" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1824" s="2" t="s">
-        <v>1783</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="1825" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1825" s="2" t="s">
-        <v>1784</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="1826" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1826" s="2" t="s">
-        <v>1785</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="1827" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1827" s="2" t="s">
-        <v>1786</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="1828" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1828" s="2" t="s">
-        <v>1787</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="1829" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1829" s="2" t="s">
-        <v>1788</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="1830" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1830" s="2" t="s">
-        <v>1789</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="1831" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1831" s="2" t="s">
-        <v>1790</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="1832" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1832" s="2" t="s">
-        <v>1791</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="1833" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1833" s="2" t="s">
-        <v>1792</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="1834" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1834" s="2" t="s">
-        <v>1793</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="1835" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1835" s="2" t="s">
-        <v>1794</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="1836" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1836" s="2" t="s">
-        <v>1795</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="1837" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1837" s="2" t="s">
-        <v>1796</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="1838" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1838" s="2" t="s">
-        <v>1797</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="1839" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1839" s="2" t="s">
-        <v>1798</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="1840" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1840" s="2" t="s">
-        <v>1799</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="1841" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1841" s="2" t="s">
-        <v>1800</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="1842" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1842" s="2" t="s">
-        <v>1801</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="1843" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1843" s="2" t="s">
-        <v>1802</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="1844" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1844" s="2" t="s">
-        <v>1803</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="1845" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1845" s="2" t="s">
-        <v>1804</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="1846" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1846" s="2" t="s">
-        <v>1805</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="1847" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1847" s="2" t="s">
-        <v>1806</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="1848" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1848" s="2" t="s">
-        <v>1807</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="1849" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1849" s="2" t="s">
-        <v>1808</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="1850" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1850" s="2" t="s">
-        <v>1809</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="1851" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1851" s="2" t="s">
-        <v>1810</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="1852" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1852" s="2" t="s">
-        <v>1811</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="1853" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1853" s="2" t="s">
-        <v>1812</v>
+      <c r="A1853" s="5" t="s">
+        <v>1828</v>
       </c>
     </row>
     <row r="1854" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1854" s="2" t="s">
-        <v>1813</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="1855" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1855" s="2" t="s">
-        <v>1814</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="1856" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1856" s="2" t="s">
-        <v>1815</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="1857" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1857" s="2" t="s">
-        <v>1816</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="1858" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1858" s="2" t="s">
-        <v>1817</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="1859" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1859" s="2" t="s">
-        <v>1818</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="1860" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1860" s="2" t="s">
-        <v>1819</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="1861" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1861" s="2" t="s">
-        <v>1820</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="1862" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1862" s="2" t="s">
-        <v>1821</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="1863" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1863" s="2" t="s">
-        <v>1822</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="1864" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1864" s="2" t="s">
-        <v>1823</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="1865" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1865" s="2" t="s">
-        <v>1824</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="1866" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1866" s="2" t="s">
-        <v>1825</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="1867" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1867" s="2" t="s">
-        <v>1826</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="1868" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1868" s="2" t="s">
-        <v>1827</v>
+      <c r="A1868" s="3" t="s">
+        <v>1770</v>
       </c>
     </row>
     <row r="1869" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1869" s="2" t="s">
-        <v>1828</v>
+      <c r="A1869" s="1" t="s">
+        <v>1773</v>
       </c>
     </row>
     <row r="1870" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1870" s="2" t="s">
-        <v>1829</v>
-      </c>
-    </row>
-    <row r="1871" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1871" s="2" t="s">
-        <v>1830</v>
-      </c>
-    </row>
-    <row r="1872" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1872" s="2" t="s">
-        <v>1831</v>
-      </c>
-    </row>
-    <row r="1873" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1873" s="2" t="s">
-        <v>1832</v>
-      </c>
-    </row>
-    <row r="1874" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1874" s="2" t="s">
-        <v>1833</v>
-      </c>
-    </row>
-    <row r="1875" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1875" s="2" t="s">
-        <v>1834</v>
-      </c>
-    </row>
-    <row r="1876" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1876" s="2" t="s">
-        <v>1835</v>
-      </c>
-    </row>
-    <row r="1877" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1877" s="2" t="s">
-        <v>1836</v>
-      </c>
-    </row>
-    <row r="1878" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1878" s="2" t="s">
-        <v>1837</v>
-      </c>
-    </row>
-    <row r="1879" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1879" s="2" t="s">
-        <v>1838</v>
-      </c>
-    </row>
-    <row r="1880" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1880" s="2" t="s">
-        <v>1839</v>
-      </c>
-    </row>
-    <row r="1881" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1881" s="2" t="s">
-        <v>1840</v>
-      </c>
-    </row>
-    <row r="1882" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1882" s="2" t="s">
-        <v>1841</v>
-      </c>
-    </row>
-    <row r="1883" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1883" s="2" t="s">
-        <v>1842</v>
-      </c>
-    </row>
-    <row r="1884" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1884" s="2" t="s">
-        <v>1843</v>
-      </c>
-    </row>
-    <row r="1885" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1885" s="2" t="s">
-        <v>1844</v>
-      </c>
-    </row>
-    <row r="1886" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1886" s="2" t="s">
-        <v>1845</v>
-      </c>
-    </row>
-    <row r="1887" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1887" s="2" t="s">
-        <v>1846</v>
-      </c>
-    </row>
-    <row r="1888" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1888" s="2" t="s">
-        <v>1847</v>
-      </c>
-    </row>
-    <row r="1889" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1889" s="2" t="s">
-        <v>1848</v>
-      </c>
-    </row>
-    <row r="1890" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1890" s="2" t="s">
-        <v>1849</v>
-      </c>
-    </row>
-    <row r="1891" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1891" s="2" t="s">
-        <v>1850</v>
-      </c>
-    </row>
-    <row r="1892" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1892" s="2" t="s">
-        <v>1851</v>
-      </c>
-    </row>
-    <row r="1893" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1893" s="2" t="s">
-        <v>1852</v>
-      </c>
-    </row>
-    <row r="1894" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1894" s="2" t="s">
-        <v>1853</v>
-      </c>
-    </row>
-    <row r="1895" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1895" s="2" t="s">
-        <v>1854</v>
-      </c>
-    </row>
-    <row r="1896" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1896" s="2" t="s">
-        <v>1855</v>
-      </c>
-    </row>
-    <row r="1897" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1897" s="2" t="s">
-        <v>1856</v>
-      </c>
-    </row>
-    <row r="1898" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1898" s="2" t="s">
-        <v>1857</v>
-      </c>
-    </row>
-    <row r="1899" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1899" s="2" t="s">
-        <v>1858</v>
-      </c>
-    </row>
-    <row r="1900" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1900" s="2" t="s">
-        <v>1859</v>
-      </c>
-    </row>
-    <row r="1901" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1901" s="2" t="s">
-        <v>1860</v>
-      </c>
-    </row>
-    <row r="1902" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1902" s="2" t="s">
-        <v>1861</v>
-      </c>
-    </row>
-    <row r="1903" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1903" s="2" t="s">
-        <v>1862</v>
-      </c>
-    </row>
-    <row r="1904" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1904" s="2" t="s">
-        <v>1863</v>
-      </c>
-    </row>
-    <row r="1905" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1905" s="2" t="s">
-        <v>1864</v>
-      </c>
-    </row>
-    <row r="1906" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1906" s="2" t="s">
-        <v>1865</v>
-      </c>
-    </row>
-    <row r="1907" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1907" s="2" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="1908" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1908" s="2" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="1909" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1909" s="2" t="s">
-        <v>1868</v>
-      </c>
-    </row>
-    <row r="1910" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1910" s="2" t="s">
-        <v>1869</v>
-      </c>
-    </row>
-    <row r="1911" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1911" s="2" t="s">
-        <v>1870</v>
-      </c>
-    </row>
-    <row r="1912" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1912" s="2" t="s">
-        <v>1871</v>
-      </c>
-    </row>
-    <row r="1913" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1913" s="2" t="s">
-        <v>1872</v>
-      </c>
-    </row>
-    <row r="1914" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1914" s="2" t="s">
-        <v>1873</v>
-      </c>
-    </row>
-    <row r="1915" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1915" s="2" t="s">
-        <v>1874</v>
-      </c>
-    </row>
-    <row r="1916" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1916" s="2" t="s">
-        <v>1875</v>
-      </c>
-    </row>
-    <row r="1917" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1917" s="2" t="s">
-        <v>1876</v>
-      </c>
-    </row>
-    <row r="1918" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1918" s="2" t="s">
-        <v>1877</v>
-      </c>
-    </row>
-    <row r="1919" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1919" s="2" t="s">
-        <v>1878</v>
-      </c>
-    </row>
-    <row r="1920" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1920" s="2" t="s">
-        <v>1897</v>
-      </c>
-    </row>
-    <row r="1921" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1921" s="2" t="s">
-        <v>1896</v>
-      </c>
-    </row>
-    <row r="1922" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1922" s="2" t="s">
-        <v>1879</v>
-      </c>
-    </row>
-    <row r="1923" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1923" s="2" t="s">
-        <v>1880</v>
-      </c>
-    </row>
-    <row r="1924" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1924" s="2" t="s">
-        <v>1881</v>
-      </c>
-    </row>
-    <row r="1925" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1925" s="2" t="s">
-        <v>1882</v>
-      </c>
-    </row>
-    <row r="1926" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1926" s="2" t="s">
-        <v>1883</v>
-      </c>
-    </row>
-    <row r="1927" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1927" s="2" t="s">
-        <v>1884</v>
-      </c>
-    </row>
-    <row r="1928" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1928" s="2" t="s">
-        <v>1885</v>
-      </c>
-    </row>
-    <row r="1929" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1929" s="2" t="s">
-        <v>1886</v>
-      </c>
-    </row>
-    <row r="1930" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1930" s="2" t="s">
-        <v>1887</v>
-      </c>
-    </row>
-    <row r="1931" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1931" s="2" t="s">
-        <v>1888</v>
-      </c>
-    </row>
-    <row r="1932" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1932" s="2" t="s">
-        <v>1889</v>
-      </c>
-    </row>
-    <row r="1933" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1933" s="2" t="s">
-        <v>1890</v>
-      </c>
-    </row>
-    <row r="1934" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1934" s="2" t="s">
-        <v>1891</v>
-      </c>
-    </row>
-    <row r="1935" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1935" s="2" t="s">
-        <v>1892</v>
-      </c>
-    </row>
-    <row r="1936" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1936" s="2" t="s">
-        <v>1894</v>
-      </c>
-    </row>
-    <row r="1937" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1937" s="6" t="s">
-        <v>1895</v>
+      <c r="A1870" s="1" t="s">
+        <v>1774</v>
       </c>
     </row>
   </sheetData>
